--- a/Assets/BackupAppData.xlsx
+++ b/Assets/BackupAppData.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projects Golang\Mobile Apps\MomApp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02857CC-8905-430E-8D3B-20A21465AB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" windowHeight="13140" windowWidth="24240" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
-    <sheet name="Log" sheetId="5" r:id="rId2"/>
-    <sheet name="Report Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Price Log" sheetId="2" r:id="rId4"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Log" sheetId="5" relationships:id="rId2"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Report Data" sheetId="3" relationships:id="rId3"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Log" sheetId="2" relationships:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -123,12 +117,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,69 +133,75 @@
   </fonts>
   <fills count="12">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor auto="true"/>
+        <bgColor auto="true"/>
       </patternFill>
     </fill>
   </fills>
@@ -285,30 +285,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="6" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="22" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFill="true" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="22" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -616,22 +616,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F4DB6A-F50D-4239-AA5A-E5D82F3DD354}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="41.42578125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="5.42578125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>786936732658</v>
       </c>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>725272730706</v>
       </c>
@@ -699,24 +699,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>28400589895</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5" t="str">
+        <v>Trucks_having_sex</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>13000006057</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>737452918903</v>
       </c>
@@ -750,27 +750,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>674398202423</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8" t="str">
+        <v>Piano_Book</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>490810512013</v>
       </c>
@@ -787,11 +787,113 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>29000073692</v>
+      </c>
+      <c r="B10" t="str">
+        <v>rrreee</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>888670109472</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Mixed_Nut_can_2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>750515018013</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Cracker_Cart</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>16000179356</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Samus</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2333</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>44000010461</v>
+      </c>
+      <c r="B14" t="str">
+        <v>rejlk</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>96619284108</v>
+      </c>
+      <c r="B15" t="str">
+        <v>333</v>
+      </c>
+      <c r="C15">
+        <v>222</v>
+      </c>
+      <c r="D15">
+        <v>211</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -873,23 +975,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C557E9-058B-42B3-9D3D-0C80A2483857}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="11.42578125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="9.7109375"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="9.5703125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="9.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>674398202423</v>
       </c>
@@ -935,7 +1037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>674398202423</v>
       </c>
@@ -955,7 +1057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>674398202423</v>
       </c>
@@ -978,7 +1080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>490810512013</v>
       </c>
@@ -1001,7 +1103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>674398202423</v>
       </c>
@@ -1024,7 +1126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>674398202423</v>
       </c>
@@ -1047,7 +1149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>674398202423</v>
       </c>
@@ -1070,7 +1172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>490810512013</v>
       </c>
@@ -1093,8 +1195,123 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10">
+        <v>674398202423</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Piano_Book</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2021/12/5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>674398202423</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Piano_Book</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>-11</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2021/12/6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>674398202423</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Piano_Book</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>86</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>-13</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2021/12/30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>674398202423</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Piano_Book</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>-14</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2021/12/30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>490810512013</v>
+      </c>
+      <c r="B14" t="str">
+        <v>verrr</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>-3</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2021/12/30</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
